--- a/data/158/MOF/TRADE/COUN/Asia.xlsx
+++ b/data/158/MOF/TRADE/COUN/Asia.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SX55"/>
+  <dimension ref="A1:TJ55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2953,6 +2953,66 @@
           <t>2021/12</t>
         </is>
       </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/02</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>2022/05</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2022/07</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>2022/09</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4478,40 +4538,76 @@
         <v>3915203352</v>
       </c>
       <c r="SM2" t="n">
-        <v>3365827356</v>
+        <v>3365869484</v>
       </c>
       <c r="SN2" t="n">
-        <v>3344160064</v>
+        <v>3344292062</v>
       </c>
       <c r="SO2" t="n">
-        <v>4224388502</v>
+        <v>4223723295</v>
       </c>
       <c r="SP2" t="n">
-        <v>4155731677</v>
+        <v>4155762611</v>
       </c>
       <c r="SQ2" t="n">
-        <v>3637121661</v>
+        <v>3637571661</v>
       </c>
       <c r="SR2" t="n">
-        <v>4137081136</v>
+        <v>4138758691</v>
       </c>
       <c r="SS2" t="n">
-        <v>4207520831</v>
+        <v>4207420813</v>
       </c>
       <c r="ST2" t="n">
-        <v>3881890690</v>
+        <v>3881668490</v>
       </c>
       <c r="SU2" t="n">
-        <v>4094162119</v>
+        <v>4094129164</v>
       </c>
       <c r="SV2" t="n">
-        <v>4245340793</v>
+        <v>4245193234</v>
       </c>
       <c r="SW2" t="n">
-        <v>4297218119</v>
+        <v>4297161079</v>
       </c>
       <c r="SX2" t="n">
-        <v>4566737212</v>
+        <v>4566639998</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>3577360498</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6038,40 +6134,76 @@
         <v>3074656145</v>
       </c>
       <c r="SM3" t="n">
-        <v>3238629561</v>
+        <v>3251406242</v>
       </c>
       <c r="SN3" t="n">
-        <v>2941659921</v>
+        <v>2949442423</v>
       </c>
       <c r="SO3" t="n">
-        <v>3336530767</v>
+        <v>3345902211</v>
       </c>
       <c r="SP3" t="n">
-        <v>3485229583</v>
+        <v>3487693672</v>
       </c>
       <c r="SQ3" t="n">
-        <v>3108508251</v>
+        <v>3115392367</v>
       </c>
       <c r="SR3" t="n">
-        <v>3311483998</v>
+        <v>3315863438</v>
       </c>
       <c r="SS3" t="n">
-        <v>3391556191</v>
+        <v>3389910301</v>
       </c>
       <c r="ST3" t="n">
-        <v>3375199429</v>
+        <v>3377481935</v>
       </c>
       <c r="SU3" t="n">
-        <v>3518854081</v>
+        <v>3521540569</v>
       </c>
       <c r="SV3" t="n">
-        <v>3472167900</v>
+        <v>3473746068</v>
       </c>
       <c r="SW3" t="n">
-        <v>3922456551</v>
+        <v>3922480539</v>
       </c>
       <c r="SX3" t="n">
-        <v>3922589926</v>
+        <v>3928059940</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>4183829399</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7598,40 +7730,76 @@
         <v>486257581</v>
       </c>
       <c r="SM4" t="n">
-        <v>429385582</v>
+        <v>429707317</v>
       </c>
       <c r="SN4" t="n">
-        <v>424236398</v>
+        <v>424256509</v>
       </c>
       <c r="SO4" t="n">
-        <v>495194432</v>
+        <v>494818743</v>
       </c>
       <c r="SP4" t="n">
-        <v>517428011</v>
+        <v>517508968</v>
       </c>
       <c r="SQ4" t="n">
-        <v>390185399</v>
+        <v>390321977</v>
       </c>
       <c r="SR4" t="n">
         <v>478197892</v>
       </c>
       <c r="SS4" t="n">
-        <v>466084671</v>
+        <v>466023559</v>
       </c>
       <c r="ST4" t="n">
-        <v>478463089</v>
+        <v>478479914</v>
       </c>
       <c r="SU4" t="n">
-        <v>496315374</v>
+        <v>496321491</v>
       </c>
       <c r="SV4" t="n">
-        <v>506887093</v>
+        <v>506856676</v>
       </c>
       <c r="SW4" t="n">
-        <v>534315772</v>
+        <v>534298294</v>
       </c>
       <c r="SX4" t="n">
-        <v>552789042</v>
+        <v>552777676</v>
+      </c>
+      <c r="SY4" t="n">
+        <v>507268342</v>
+      </c>
+      <c r="SZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9158,40 +9326,76 @@
         <v>265109145</v>
       </c>
       <c r="SM5" t="n">
-        <v>255715316</v>
+        <v>256589623</v>
       </c>
       <c r="SN5" t="n">
-        <v>242072970</v>
+        <v>242176001</v>
       </c>
       <c r="SO5" t="n">
-        <v>294337193</v>
+        <v>294397963</v>
       </c>
       <c r="SP5" t="n">
-        <v>294505310</v>
+        <v>294900058</v>
       </c>
       <c r="SQ5" t="n">
-        <v>271823532</v>
+        <v>271649023</v>
       </c>
       <c r="SR5" t="n">
-        <v>297618829</v>
+        <v>297595722</v>
       </c>
       <c r="SS5" t="n">
-        <v>305077153</v>
+        <v>305157008</v>
       </c>
       <c r="ST5" t="n">
-        <v>277020622</v>
+        <v>276996558</v>
       </c>
       <c r="SU5" t="n">
-        <v>307758063</v>
+        <v>307837892</v>
       </c>
       <c r="SV5" t="n">
-        <v>298220236</v>
+        <v>298283082</v>
       </c>
       <c r="SW5" t="n">
-        <v>331935297</v>
+        <v>331793949</v>
       </c>
       <c r="SX5" t="n">
-        <v>343540866</v>
+        <v>343782986</v>
+      </c>
+      <c r="SY5" t="n">
+        <v>324622928</v>
+      </c>
+      <c r="SZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10753,6 +10957,42 @@
       <c r="SX6" t="n">
         <v>0</v>
       </c>
+      <c r="SY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -12313,6 +12553,42 @@
       <c r="SX7" t="n">
         <v>0</v>
       </c>
+      <c r="SY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -13838,40 +14114,76 @@
         <v>1556530583</v>
       </c>
       <c r="SM8" t="n">
-        <v>1232676052</v>
+        <v>1232667847</v>
       </c>
       <c r="SN8" t="n">
-        <v>1174318684</v>
+        <v>1174365825</v>
       </c>
       <c r="SO8" t="n">
-        <v>1634396418</v>
+        <v>1634297185</v>
       </c>
       <c r="SP8" t="n">
-        <v>1582791422</v>
+        <v>1582718637</v>
       </c>
       <c r="SQ8" t="n">
-        <v>1392570667</v>
+        <v>1392874376</v>
       </c>
       <c r="SR8" t="n">
-        <v>1587355774</v>
+        <v>1587263445</v>
       </c>
       <c r="SS8" t="n">
-        <v>1580636258</v>
+        <v>1580604354</v>
       </c>
       <c r="ST8" t="n">
-        <v>1421092749</v>
+        <v>1421073318</v>
       </c>
       <c r="SU8" t="n">
-        <v>1479259297</v>
+        <v>1479253684</v>
       </c>
       <c r="SV8" t="n">
-        <v>1597189212</v>
+        <v>1597210219</v>
       </c>
       <c r="SW8" t="n">
-        <v>1577261755</v>
+        <v>1577240626</v>
       </c>
       <c r="SX8" t="n">
-        <v>1724972215</v>
+        <v>1724819633</v>
+      </c>
+      <c r="SY8" t="n">
+        <v>1166593250</v>
+      </c>
+      <c r="SZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -15398,40 +15710,76 @@
         <v>1574306980</v>
       </c>
       <c r="SM9" t="n">
-        <v>1720322246</v>
+        <v>1725927092</v>
       </c>
       <c r="SN9" t="n">
-        <v>1446451943</v>
+        <v>1448981132</v>
       </c>
       <c r="SO9" t="n">
-        <v>1577969991</v>
+        <v>1582083909</v>
       </c>
       <c r="SP9" t="n">
-        <v>1750364496</v>
+        <v>1754148690</v>
       </c>
       <c r="SQ9" t="n">
-        <v>1585206477</v>
+        <v>1588022697</v>
       </c>
       <c r="SR9" t="n">
-        <v>1636255357</v>
+        <v>1638040798</v>
       </c>
       <c r="SS9" t="n">
-        <v>1638328229</v>
+        <v>1638859138</v>
       </c>
       <c r="ST9" t="n">
-        <v>1630759778</v>
+        <v>1631781239</v>
       </c>
       <c r="SU9" t="n">
-        <v>1773880370</v>
+        <v>1774424044</v>
       </c>
       <c r="SV9" t="n">
-        <v>1716425018</v>
+        <v>1716955057</v>
       </c>
       <c r="SW9" t="n">
-        <v>1980435502</v>
+        <v>1980696192</v>
       </c>
       <c r="SX9" t="n">
-        <v>1897001619</v>
+        <v>1897577797</v>
+      </c>
+      <c r="SY9" t="n">
+        <v>2128239237</v>
+      </c>
+      <c r="SZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -16958,28 +17306,28 @@
         <v>443735079</v>
       </c>
       <c r="SM10" t="n">
-        <v>414027620</v>
+        <v>413996946</v>
       </c>
       <c r="SN10" t="n">
         <v>412040337</v>
       </c>
       <c r="SO10" t="n">
-        <v>490873157</v>
+        <v>490874693</v>
       </c>
       <c r="SP10" t="n">
-        <v>493523793</v>
+        <v>493541692</v>
       </c>
       <c r="SQ10" t="n">
-        <v>452042948</v>
+        <v>452043780</v>
       </c>
       <c r="SR10" t="n">
-        <v>507330523</v>
+        <v>508825594</v>
       </c>
       <c r="SS10" t="n">
-        <v>538142587</v>
+        <v>538117530</v>
       </c>
       <c r="ST10" t="n">
-        <v>520990589</v>
+        <v>520987329</v>
       </c>
       <c r="SU10" t="n">
         <v>516287245</v>
@@ -16988,10 +17336,46 @@
         <v>524184987</v>
       </c>
       <c r="SW10" t="n">
-        <v>533394857</v>
+        <v>533386391</v>
       </c>
       <c r="SX10" t="n">
-        <v>583799881</v>
+        <v>583797380</v>
+      </c>
+      <c r="SY10" t="n">
+        <v>441964199</v>
+      </c>
+      <c r="SZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -18518,40 +18902,76 @@
         <v>237906696</v>
       </c>
       <c r="SM11" t="n">
-        <v>264023271</v>
+        <v>265050507</v>
       </c>
       <c r="SN11" t="n">
-        <v>235552355</v>
+        <v>235979090</v>
       </c>
       <c r="SO11" t="n">
-        <v>257778888</v>
+        <v>258684993</v>
       </c>
       <c r="SP11" t="n">
-        <v>331027077</v>
+        <v>322943114</v>
       </c>
       <c r="SQ11" t="n">
-        <v>270727189</v>
+        <v>270809147</v>
       </c>
       <c r="SR11" t="n">
-        <v>291381004</v>
+        <v>291314759</v>
       </c>
       <c r="SS11" t="n">
-        <v>321245944</v>
+        <v>317368836</v>
       </c>
       <c r="ST11" t="n">
-        <v>323676949</v>
+        <v>322051512</v>
       </c>
       <c r="SU11" t="n">
-        <v>338701604</v>
+        <v>338818859</v>
       </c>
       <c r="SV11" t="n">
-        <v>332853891</v>
+        <v>332937475</v>
       </c>
       <c r="SW11" t="n">
-        <v>356508464</v>
+        <v>356524057</v>
       </c>
       <c r="SX11" t="n">
-        <v>368948725</v>
+        <v>369343016</v>
+      </c>
+      <c r="SY11" t="n">
+        <v>361407753</v>
+      </c>
+      <c r="SZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -20093,7 +20513,7 @@
         <v>4401378</v>
       </c>
       <c r="SR12" t="n">
-        <v>4696123</v>
+        <v>4698246</v>
       </c>
       <c r="SS12" t="n">
         <v>4736363</v>
@@ -20112,6 +20532,42 @@
       </c>
       <c r="SX12" t="n">
         <v>7447546</v>
+      </c>
+      <c r="SY12" t="n">
+        <v>4581569</v>
+      </c>
+      <c r="SZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -21665,13 +22121,49 @@
         <v>227434</v>
       </c>
       <c r="SV13" t="n">
-        <v>312500</v>
+        <v>314933</v>
       </c>
       <c r="SW13" t="n">
         <v>370328</v>
       </c>
       <c r="SX13" t="n">
         <v>282736</v>
+      </c>
+      <c r="SY13" t="n">
+        <v>236926</v>
+      </c>
+      <c r="SZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23198,10 +23690,10 @@
         <v>329455736</v>
       </c>
       <c r="SM14" t="n">
-        <v>293468070</v>
+        <v>293516848</v>
       </c>
       <c r="SN14" t="n">
-        <v>259101775</v>
+        <v>259086721</v>
       </c>
       <c r="SO14" t="n">
         <v>319853639</v>
@@ -23210,28 +23702,64 @@
         <v>326907109</v>
       </c>
       <c r="SQ14" t="n">
-        <v>301941028</v>
+        <v>301955616</v>
       </c>
       <c r="SR14" t="n">
-        <v>347956635</v>
+        <v>347940069</v>
       </c>
       <c r="SS14" t="n">
-        <v>337626074</v>
+        <v>337617061</v>
       </c>
       <c r="ST14" t="n">
-        <v>335482685</v>
+        <v>335482332</v>
       </c>
       <c r="SU14" t="n">
-        <v>348330250</v>
+        <v>348329690</v>
       </c>
       <c r="SV14" t="n">
-        <v>338169442</v>
+        <v>338181416</v>
       </c>
       <c r="SW14" t="n">
         <v>322913595</v>
       </c>
       <c r="SX14" t="n">
-        <v>358554113</v>
+        <v>358624904</v>
+      </c>
+      <c r="SY14" t="n">
+        <v>307842754</v>
+      </c>
+      <c r="SZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24758,40 +25286,76 @@
         <v>11319711</v>
       </c>
       <c r="SM15" t="n">
-        <v>9692434</v>
+        <v>9883449</v>
       </c>
       <c r="SN15" t="n">
-        <v>7011319</v>
+        <v>7127186</v>
       </c>
       <c r="SO15" t="n">
-        <v>10227373</v>
+        <v>10435551</v>
       </c>
       <c r="SP15" t="n">
-        <v>12427621</v>
+        <v>12667112</v>
       </c>
       <c r="SQ15" t="n">
-        <v>9846909</v>
+        <v>9951640</v>
       </c>
       <c r="SR15" t="n">
-        <v>10721250</v>
+        <v>10847129</v>
       </c>
       <c r="SS15" t="n">
-        <v>9460815</v>
+        <v>9462899</v>
       </c>
       <c r="ST15" t="n">
-        <v>9095168</v>
+        <v>9094597</v>
       </c>
       <c r="SU15" t="n">
-        <v>9346512</v>
+        <v>9339853</v>
       </c>
       <c r="SV15" t="n">
-        <v>10155358</v>
+        <v>10162596</v>
       </c>
       <c r="SW15" t="n">
-        <v>9341466</v>
+        <v>9340165</v>
       </c>
       <c r="SX15" t="n">
-        <v>11859091</v>
+        <v>11862489</v>
+      </c>
+      <c r="SY15" t="n">
+        <v>18704674</v>
+      </c>
+      <c r="SZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -26318,40 +26882,76 @@
         <v>176811237</v>
       </c>
       <c r="SM16" t="n">
-        <v>138856221</v>
+        <v>138852595</v>
       </c>
       <c r="SN16" t="n">
-        <v>148693455</v>
+        <v>148674234</v>
       </c>
       <c r="SO16" t="n">
-        <v>179637909</v>
+        <v>179608846</v>
       </c>
       <c r="SP16" t="n">
-        <v>192131093</v>
+        <v>192138639</v>
       </c>
       <c r="SQ16" t="n">
-        <v>165720774</v>
+        <v>165742125</v>
       </c>
       <c r="SR16" t="n">
-        <v>182725135</v>
+        <v>182694659</v>
       </c>
       <c r="SS16" t="n">
-        <v>191385671</v>
+        <v>191375549</v>
       </c>
       <c r="ST16" t="n">
-        <v>140947572</v>
+        <v>140943969</v>
       </c>
       <c r="SU16" t="n">
-        <v>168297749</v>
+        <v>168302437</v>
       </c>
       <c r="SV16" t="n">
-        <v>177692902</v>
+        <v>177695109</v>
       </c>
       <c r="SW16" t="n">
         <v>201270727</v>
       </c>
       <c r="SX16" t="n">
-        <v>209502477</v>
+        <v>209509389</v>
+      </c>
+      <c r="SY16" t="n">
+        <v>139833973</v>
+      </c>
+      <c r="SZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -27878,40 +28478,76 @@
         <v>200866478</v>
       </c>
       <c r="SM17" t="n">
-        <v>208889143</v>
+        <v>209896214</v>
       </c>
       <c r="SN17" t="n">
-        <v>193479268</v>
+        <v>193580944</v>
       </c>
       <c r="SO17" t="n">
-        <v>220141937</v>
+        <v>220311771</v>
       </c>
       <c r="SP17" t="n">
-        <v>227085999</v>
+        <v>227328674</v>
       </c>
       <c r="SQ17" t="n">
-        <v>192210991</v>
+        <v>192307071</v>
       </c>
       <c r="SR17" t="n">
-        <v>213708524</v>
+        <v>213869767</v>
       </c>
       <c r="SS17" t="n">
-        <v>226167853</v>
+        <v>226268283</v>
       </c>
       <c r="ST17" t="n">
-        <v>195656784</v>
+        <v>195717295</v>
       </c>
       <c r="SU17" t="n">
-        <v>195085708</v>
+        <v>195233975</v>
       </c>
       <c r="SV17" t="n">
-        <v>176006095</v>
+        <v>175953520</v>
       </c>
       <c r="SW17" t="n">
-        <v>230011773</v>
+        <v>229983946</v>
       </c>
       <c r="SX17" t="n">
-        <v>243365418</v>
+        <v>244073810</v>
+      </c>
+      <c r="SY17" t="n">
+        <v>261876101</v>
+      </c>
+      <c r="SZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29438,40 +30074,76 @@
         <v>273766267</v>
       </c>
       <c r="SM18" t="n">
-        <v>262687275</v>
+        <v>262685849</v>
       </c>
       <c r="SN18" t="n">
-        <v>281551165</v>
+        <v>281552374</v>
       </c>
       <c r="SO18" t="n">
-        <v>305340805</v>
+        <v>305362386</v>
       </c>
       <c r="SP18" t="n">
-        <v>313742640</v>
+        <v>313751840</v>
       </c>
       <c r="SQ18" t="n">
-        <v>268218261</v>
+        <v>268223161</v>
       </c>
       <c r="SR18" t="n">
-        <v>308910227</v>
+        <v>308929610</v>
       </c>
       <c r="SS18" t="n">
-        <v>347742673</v>
+        <v>347735972</v>
       </c>
       <c r="ST18" t="n">
-        <v>293711262</v>
+        <v>293716521</v>
       </c>
       <c r="SU18" t="n">
-        <v>305968057</v>
+        <v>305979200</v>
       </c>
       <c r="SV18" t="n">
-        <v>319524708</v>
+        <v>319521067</v>
       </c>
       <c r="SW18" t="n">
-        <v>305163580</v>
+        <v>305164813</v>
       </c>
       <c r="SX18" t="n">
         <v>311982371</v>
+      </c>
+      <c r="SY18" t="n">
+        <v>287566590</v>
+      </c>
+      <c r="SZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -30998,40 +31670,76 @@
         <v>231385476</v>
       </c>
       <c r="SM19" t="n">
-        <v>212899581</v>
+        <v>213277688</v>
       </c>
       <c r="SN19" t="n">
-        <v>225930634</v>
+        <v>226069565</v>
       </c>
       <c r="SO19" t="n">
-        <v>266504580</v>
+        <v>267001993</v>
       </c>
       <c r="SP19" t="n">
-        <v>239108337</v>
+        <v>239528553</v>
       </c>
       <c r="SQ19" t="n">
-        <v>215945493</v>
+        <v>216453372</v>
       </c>
       <c r="SR19" t="n">
-        <v>241218469</v>
+        <v>241757397</v>
       </c>
       <c r="SS19" t="n">
-        <v>240588273</v>
+        <v>240759774</v>
       </c>
       <c r="ST19" t="n">
-        <v>245631843</v>
+        <v>245833701</v>
       </c>
       <c r="SU19" t="n">
-        <v>243341537</v>
+        <v>243351180</v>
       </c>
       <c r="SV19" t="n">
-        <v>241066969</v>
+        <v>241095830</v>
       </c>
       <c r="SW19" t="n">
-        <v>258285761</v>
+        <v>258277339</v>
       </c>
       <c r="SX19" t="n">
-        <v>256268220</v>
+        <v>258793553</v>
+      </c>
+      <c r="SY19" t="n">
+        <v>259720746</v>
+      </c>
+      <c r="SZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -32561,7 +33269,7 @@
         <v>151944085</v>
       </c>
       <c r="SN20" t="n">
-        <v>166260190</v>
+        <v>166249194</v>
       </c>
       <c r="SO20" t="n">
         <v>194015867</v>
@@ -32573,25 +33281,61 @@
         <v>172171576</v>
       </c>
       <c r="SR20" t="n">
-        <v>171503924</v>
+        <v>171504382</v>
       </c>
       <c r="SS20" t="n">
-        <v>199074565</v>
+        <v>199072312</v>
       </c>
       <c r="ST20" t="n">
         <v>181708870</v>
       </c>
       <c r="SU20" t="n">
-        <v>188920975</v>
+        <v>188902525</v>
       </c>
       <c r="SV20" t="n">
-        <v>195025894</v>
+        <v>195025661</v>
       </c>
       <c r="SW20" t="n">
         <v>196647800</v>
       </c>
       <c r="SX20" t="n">
-        <v>196031806</v>
+        <v>196031764</v>
+      </c>
+      <c r="SY20" t="n">
+        <v>187150671</v>
+      </c>
+      <c r="SZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -34118,40 +34862,76 @@
         <v>67608566</v>
       </c>
       <c r="SM21" t="n">
-        <v>71147458</v>
+        <v>71398181</v>
       </c>
       <c r="SN21" t="n">
-        <v>66855518</v>
+        <v>67235803</v>
       </c>
       <c r="SO21" t="n">
-        <v>79129646</v>
+        <v>79321743</v>
       </c>
       <c r="SP21" t="n">
-        <v>66037365</v>
+        <v>66168894</v>
       </c>
       <c r="SQ21" t="n">
-        <v>78650642</v>
+        <v>78736113</v>
       </c>
       <c r="SR21" t="n">
-        <v>84392583</v>
+        <v>84371807</v>
       </c>
       <c r="SS21" t="n">
-        <v>88440962</v>
+        <v>88436558</v>
       </c>
       <c r="ST21" t="n">
-        <v>87848073</v>
+        <v>88035585</v>
       </c>
       <c r="SU21" t="n">
-        <v>84777562</v>
+        <v>85136082</v>
       </c>
       <c r="SV21" t="n">
-        <v>88062681</v>
+        <v>88301865</v>
       </c>
       <c r="SW21" t="n">
-        <v>83008394</v>
+        <v>83003992</v>
       </c>
       <c r="SX21" t="n">
-        <v>91839729</v>
+        <v>91835207</v>
+      </c>
+      <c r="SY21" t="n">
+        <v>93727736</v>
+      </c>
+      <c r="SZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -35678,19 +36458,19 @@
         <v>135123065</v>
       </c>
       <c r="SM22" t="n">
-        <v>131924381</v>
+        <v>131936654</v>
       </c>
       <c r="SN22" t="n">
-        <v>132897811</v>
+        <v>132872264</v>
       </c>
       <c r="SO22" t="n">
-        <v>162382243</v>
+        <v>162368622</v>
       </c>
       <c r="SP22" t="n">
         <v>152813375</v>
       </c>
       <c r="SQ22" t="n">
-        <v>134300089</v>
+        <v>134279312</v>
       </c>
       <c r="SR22" t="n">
         <v>141989042</v>
@@ -35702,16 +36482,52 @@
         <v>116348605</v>
       </c>
       <c r="SU22" t="n">
-        <v>143138430</v>
+        <v>143115014</v>
       </c>
       <c r="SV22" t="n">
-        <v>143404788</v>
+        <v>143400038</v>
       </c>
       <c r="SW22" t="n">
-        <v>162914558</v>
+        <v>162914606</v>
       </c>
       <c r="SX22" t="n">
         <v>161634838</v>
+      </c>
+      <c r="SY22" t="n">
+        <v>137296591</v>
+      </c>
+      <c r="SZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -37238,40 +38054,76 @@
         <v>154427272</v>
       </c>
       <c r="SM23" t="n">
-        <v>161897433</v>
+        <v>162474645</v>
       </c>
       <c r="SN23" t="n">
-        <v>172498782</v>
+        <v>173172039</v>
       </c>
       <c r="SO23" t="n">
-        <v>194077122</v>
+        <v>194731038</v>
       </c>
       <c r="SP23" t="n">
-        <v>180562222</v>
+        <v>181192508</v>
       </c>
       <c r="SQ23" t="n">
-        <v>152807969</v>
+        <v>153454103</v>
       </c>
       <c r="SR23" t="n">
-        <v>174500021</v>
+        <v>175027402</v>
       </c>
       <c r="SS23" t="n">
-        <v>169365074</v>
+        <v>169878940</v>
       </c>
       <c r="ST23" t="n">
-        <v>169711827</v>
+        <v>170274318</v>
       </c>
       <c r="SU23" t="n">
-        <v>146184218</v>
+        <v>146322749</v>
       </c>
       <c r="SV23" t="n">
-        <v>179161008</v>
+        <v>179440312</v>
       </c>
       <c r="SW23" t="n">
-        <v>223469050</v>
+        <v>223377313</v>
       </c>
       <c r="SX23" t="n">
-        <v>235313900</v>
+        <v>235254049</v>
+      </c>
+      <c r="SY23" t="n">
+        <v>240053195</v>
+      </c>
+      <c r="SZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -38833,6 +39685,42 @@
       <c r="SX24" t="n">
         <v>351541</v>
       </c>
+      <c r="SY24" t="n">
+        <v>317002</v>
+      </c>
+      <c r="SZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -40358,40 +41246,76 @@
         <v>12085048</v>
       </c>
       <c r="SM25" t="n">
-        <v>21661113</v>
+        <v>21891306</v>
       </c>
       <c r="SN25" t="n">
-        <v>21217397</v>
+        <v>22285000</v>
       </c>
       <c r="SO25" t="n">
-        <v>18223122</v>
+        <v>20624127</v>
       </c>
       <c r="SP25" t="n">
-        <v>14913220</v>
+        <v>16703070</v>
       </c>
       <c r="SQ25" t="n">
-        <v>16435363</v>
+        <v>18478064</v>
       </c>
       <c r="SR25" t="n">
-        <v>21953759</v>
+        <v>22902921</v>
       </c>
       <c r="SS25" t="n">
-        <v>19767452</v>
+        <v>20471292</v>
       </c>
       <c r="ST25" t="n">
-        <v>21932599</v>
+        <v>22642237</v>
       </c>
       <c r="SU25" t="n">
-        <v>27953281</v>
+        <v>28985419</v>
       </c>
       <c r="SV25" t="n">
-        <v>12533723</v>
+        <v>12838737</v>
       </c>
       <c r="SW25" t="n">
         <v>21802256</v>
       </c>
       <c r="SX25" t="n">
-        <v>27827091</v>
+        <v>27823392</v>
+      </c>
+      <c r="SY25" t="n">
+        <v>34605763</v>
+      </c>
+      <c r="SZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -41924,7 +42848,7 @@
         <v>80769669</v>
       </c>
       <c r="SO26" t="n">
-        <v>106085314</v>
+        <v>105922914</v>
       </c>
       <c r="SP26" t="n">
         <v>99618342</v>
@@ -41933,13 +42857,13 @@
         <v>92937948</v>
       </c>
       <c r="SR26" t="n">
-        <v>103119679</v>
+        <v>103114263</v>
       </c>
       <c r="SS26" t="n">
-        <v>109172792</v>
+        <v>109188739</v>
       </c>
       <c r="ST26" t="n">
-        <v>97793402</v>
+        <v>97765293</v>
       </c>
       <c r="SU26" t="n">
         <v>113516958</v>
@@ -41951,7 +42875,43 @@
         <v>115455633</v>
       </c>
       <c r="SX26" t="n">
-        <v>112806151</v>
+        <v>112799885</v>
+      </c>
+      <c r="SY26" t="n">
+        <v>103676943</v>
+      </c>
+      <c r="SZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -43478,40 +44438,76 @@
         <v>87404952</v>
       </c>
       <c r="SM27" t="n">
-        <v>80287319</v>
+        <v>81067037</v>
       </c>
       <c r="SN27" t="n">
-        <v>87888088</v>
+        <v>88347839</v>
       </c>
       <c r="SO27" t="n">
-        <v>109951685</v>
+        <v>109415233</v>
       </c>
       <c r="SP27" t="n">
-        <v>95850990</v>
+        <v>96231297</v>
       </c>
       <c r="SQ27" t="n">
-        <v>92707161</v>
+        <v>92907453</v>
       </c>
       <c r="SR27" t="n">
-        <v>100409910</v>
+        <v>101270010</v>
       </c>
       <c r="SS27" t="n">
-        <v>108244327</v>
+        <v>109076682</v>
       </c>
       <c r="ST27" t="n">
-        <v>95789666</v>
+        <v>96333157</v>
       </c>
       <c r="SU27" t="n">
-        <v>97796777</v>
+        <v>98057552</v>
       </c>
       <c r="SV27" t="n">
-        <v>99296709</v>
+        <v>99331545</v>
       </c>
       <c r="SW27" t="n">
-        <v>115047437</v>
+        <v>115057562</v>
       </c>
       <c r="SX27" t="n">
-        <v>104550058</v>
+        <v>105130842</v>
+      </c>
+      <c r="SY27" t="n">
+        <v>104051951</v>
+      </c>
+      <c r="SZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -45038,40 +46034,76 @@
         <v>83526248</v>
       </c>
       <c r="SM28" t="n">
-        <v>86806167</v>
+        <v>86663980</v>
       </c>
       <c r="SN28" t="n">
-        <v>100759272</v>
+        <v>100911457</v>
       </c>
       <c r="SO28" t="n">
         <v>124785760</v>
       </c>
       <c r="SP28" t="n">
-        <v>103305067</v>
+        <v>103306604</v>
       </c>
       <c r="SQ28" t="n">
-        <v>112613851</v>
+        <v>112607228</v>
       </c>
       <c r="SR28" t="n">
-        <v>128972112</v>
+        <v>129280016</v>
       </c>
       <c r="SS28" t="n">
-        <v>128001929</v>
+        <v>128035496</v>
       </c>
       <c r="ST28" t="n">
-        <v>109304484</v>
+        <v>109260522</v>
       </c>
       <c r="SU28" t="n">
-        <v>142284176</v>
+        <v>142281969</v>
       </c>
       <c r="SV28" t="n">
-        <v>134267423</v>
+        <v>134156799</v>
       </c>
       <c r="SW28" t="n">
         <v>147379199</v>
       </c>
       <c r="SX28" t="n">
-        <v>146736140</v>
+        <v>146734360</v>
+      </c>
+      <c r="SY28" t="n">
+        <v>130406800</v>
+      </c>
+      <c r="SZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -46598,40 +47630,76 @@
         <v>157344710</v>
       </c>
       <c r="SM29" t="n">
-        <v>141429508</v>
+        <v>143134496</v>
       </c>
       <c r="SN29" t="n">
-        <v>153632457</v>
+        <v>155205553</v>
       </c>
       <c r="SO29" t="n">
-        <v>188662547</v>
+        <v>189241232</v>
       </c>
       <c r="SP29" t="n">
-        <v>166164261</v>
+        <v>168552412</v>
       </c>
       <c r="SQ29" t="n">
-        <v>146587440</v>
+        <v>147150501</v>
       </c>
       <c r="SR29" t="n">
-        <v>150387093</v>
+        <v>149883606</v>
       </c>
       <c r="SS29" t="n">
-        <v>176614417</v>
+        <v>175891767</v>
       </c>
       <c r="ST29" t="n">
-        <v>206740552</v>
+        <v>207407369</v>
       </c>
       <c r="SU29" t="n">
-        <v>186896773</v>
+        <v>187037820</v>
       </c>
       <c r="SV29" t="n">
-        <v>202642578</v>
+        <v>202682607</v>
       </c>
       <c r="SW29" t="n">
-        <v>196725266</v>
+        <v>196750078</v>
       </c>
       <c r="SX29" t="n">
-        <v>231090173</v>
+        <v>231440754</v>
+      </c>
+      <c r="SY29" t="n">
+        <v>235056797</v>
+      </c>
+      <c r="SZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -48176,7 +49244,7 @@
         <v>5172661</v>
       </c>
       <c r="SS30" t="n">
-        <v>4963439</v>
+        <v>4961811</v>
       </c>
       <c r="ST30" t="n">
         <v>4946463</v>
@@ -48192,6 +49260,42 @@
       </c>
       <c r="SX30" t="n">
         <v>6203185</v>
+      </c>
+      <c r="SY30" t="n">
+        <v>4506936</v>
+      </c>
+      <c r="SZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -49718,19 +50822,19 @@
         <v>13437779</v>
       </c>
       <c r="SM31" t="n">
-        <v>14476326</v>
+        <v>14476325</v>
       </c>
       <c r="SN31" t="n">
-        <v>16366482</v>
+        <v>16398276</v>
       </c>
       <c r="SO31" t="n">
-        <v>20829797</v>
+        <v>20831091</v>
       </c>
       <c r="SP31" t="n">
         <v>16779791</v>
       </c>
       <c r="SQ31" t="n">
-        <v>7950575</v>
+        <v>7960797</v>
       </c>
       <c r="SR31" t="n">
         <v>10874413</v>
@@ -49739,19 +50843,55 @@
         <v>13192017</v>
       </c>
       <c r="ST31" t="n">
-        <v>21026302</v>
+        <v>21043013</v>
       </c>
       <c r="SU31" t="n">
         <v>20963069</v>
       </c>
       <c r="SV31" t="n">
-        <v>19043083</v>
+        <v>19043803</v>
       </c>
       <c r="SW31" t="n">
         <v>15462987</v>
       </c>
       <c r="SX31" t="n">
-        <v>14624107</v>
+        <v>14773209</v>
+      </c>
+      <c r="SY31" t="n">
+        <v>16346902</v>
+      </c>
+      <c r="SZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -51313,6 +52453,42 @@
       <c r="SX32" t="n">
         <v>1003818</v>
       </c>
+      <c r="SY32" t="n">
+        <v>947711</v>
+      </c>
+      <c r="SZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -52838,7 +54014,7 @@
         <v>966916</v>
       </c>
       <c r="SM33" t="n">
-        <v>1398651</v>
+        <v>1398943</v>
       </c>
       <c r="SN33" t="n">
         <v>1136071</v>
@@ -52872,6 +54048,42 @@
       </c>
       <c r="SX33" t="n">
         <v>1257754</v>
+      </c>
+      <c r="SY33" t="n">
+        <v>1366337</v>
+      </c>
+      <c r="SZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -54401,7 +55613,7 @@
         <v>5175541</v>
       </c>
       <c r="SN34" t="n">
-        <v>3565373</v>
+        <v>3547747</v>
       </c>
       <c r="SO34" t="n">
         <v>3057857</v>
@@ -54432,6 +55644,42 @@
       </c>
       <c r="SX34" t="n">
         <v>3365969</v>
+      </c>
+      <c r="SY34" t="n">
+        <v>2468711</v>
+      </c>
+      <c r="SZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -55958,31 +57206,31 @@
         <v>7844160</v>
       </c>
       <c r="SM35" t="n">
-        <v>9065682</v>
+        <v>9067092</v>
       </c>
       <c r="SN35" t="n">
-        <v>10619670</v>
+        <v>10620532</v>
       </c>
       <c r="SO35" t="n">
-        <v>10423652</v>
+        <v>10434641</v>
       </c>
       <c r="SP35" t="n">
-        <v>8642696</v>
+        <v>8651292</v>
       </c>
       <c r="SQ35" t="n">
-        <v>7662573</v>
+        <v>7665621</v>
       </c>
       <c r="SR35" t="n">
         <v>6768440</v>
       </c>
       <c r="SS35" t="n">
-        <v>5627198</v>
+        <v>5632032</v>
       </c>
       <c r="ST35" t="n">
-        <v>9880442</v>
+        <v>9880968</v>
       </c>
       <c r="SU35" t="n">
-        <v>9996495</v>
+        <v>9993131</v>
       </c>
       <c r="SV35" t="n">
         <v>11190096</v>
@@ -55991,7 +57239,43 @@
         <v>8304863</v>
       </c>
       <c r="SX35" t="n">
-        <v>7174569</v>
+        <v>7174634</v>
+      </c>
+      <c r="SY35" t="n">
+        <v>9282555</v>
+      </c>
+      <c r="SZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -57518,13 +58802,13 @@
         <v>110765932</v>
       </c>
       <c r="SM36" t="n">
-        <v>96643187</v>
+        <v>96492448</v>
       </c>
       <c r="SN36" t="n">
-        <v>109314462</v>
+        <v>109314258</v>
       </c>
       <c r="SO36" t="n">
-        <v>143822800</v>
+        <v>143821411</v>
       </c>
       <c r="SP36" t="n">
         <v>121883205</v>
@@ -57539,19 +58823,55 @@
         <v>112854941</v>
       </c>
       <c r="ST36" t="n">
-        <v>119197310</v>
+        <v>119051744</v>
       </c>
       <c r="SU36" t="n">
-        <v>121973807</v>
+        <v>121971525</v>
       </c>
       <c r="SV36" t="n">
-        <v>122419805</v>
+        <v>122391605</v>
       </c>
       <c r="SW36" t="n">
-        <v>115359499</v>
+        <v>115349947</v>
       </c>
       <c r="SX36" t="n">
         <v>125870571</v>
+      </c>
+      <c r="SY36" t="n">
+        <v>99581981</v>
+      </c>
+      <c r="SZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -59078,40 +60398,76 @@
         <v>37043731</v>
       </c>
       <c r="SM37" t="n">
-        <v>49246916</v>
+        <v>49367187</v>
       </c>
       <c r="SN37" t="n">
-        <v>41160998</v>
+        <v>41321373</v>
       </c>
       <c r="SO37" t="n">
-        <v>62781135</v>
+        <v>62862921</v>
       </c>
       <c r="SP37" t="n">
-        <v>60146703</v>
+        <v>60274455</v>
       </c>
       <c r="SQ37" t="n">
-        <v>43286842</v>
+        <v>43181443</v>
       </c>
       <c r="SR37" t="n">
-        <v>56037432</v>
+        <v>56078434</v>
       </c>
       <c r="SS37" t="n">
-        <v>50563789</v>
+        <v>50577425</v>
       </c>
       <c r="ST37" t="n">
-        <v>56952259</v>
+        <v>56891981</v>
       </c>
       <c r="SU37" t="n">
-        <v>54076166</v>
+        <v>53941749</v>
       </c>
       <c r="SV37" t="n">
-        <v>62430333</v>
+        <v>62443813</v>
       </c>
       <c r="SW37" t="n">
-        <v>69707390</v>
+        <v>69694965</v>
       </c>
       <c r="SX37" t="n">
-        <v>67972313</v>
+        <v>67976951</v>
+      </c>
+      <c r="SY37" t="n">
+        <v>74184581</v>
+      </c>
+      <c r="SZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -60638,31 +61994,31 @@
         <v>17359496</v>
       </c>
       <c r="SM38" t="n">
-        <v>14713459</v>
+        <v>14713009</v>
       </c>
       <c r="SN38" t="n">
         <v>17629898</v>
       </c>
       <c r="SO38" t="n">
-        <v>20278655</v>
+        <v>20271726</v>
       </c>
       <c r="SP38" t="n">
-        <v>20543251</v>
+        <v>20545216</v>
       </c>
       <c r="SQ38" t="n">
-        <v>14775743</v>
+        <v>14772722</v>
       </c>
       <c r="SR38" t="n">
         <v>24622983</v>
       </c>
       <c r="SS38" t="n">
-        <v>17747336</v>
+        <v>17745594</v>
       </c>
       <c r="ST38" t="n">
         <v>24132463</v>
       </c>
       <c r="SU38" t="n">
-        <v>25359201</v>
+        <v>25356826</v>
       </c>
       <c r="SV38" t="n">
         <v>26852946</v>
@@ -60671,7 +62027,43 @@
         <v>22458061</v>
       </c>
       <c r="SX38" t="n">
-        <v>23845153</v>
+        <v>23844773</v>
+      </c>
+      <c r="SY38" t="n">
+        <v>17687148</v>
+      </c>
+      <c r="SZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -62198,40 +63590,76 @@
         <v>1747118</v>
       </c>
       <c r="SM39" t="n">
-        <v>2877443</v>
+        <v>2874921</v>
       </c>
       <c r="SN39" t="n">
-        <v>3698544</v>
+        <v>3698525</v>
       </c>
       <c r="SO39" t="n">
-        <v>2834650</v>
+        <v>2864582</v>
       </c>
       <c r="SP39" t="n">
-        <v>2036733</v>
+        <v>2037904</v>
       </c>
       <c r="SQ39" t="n">
-        <v>1734871</v>
+        <v>1734876</v>
       </c>
       <c r="SR39" t="n">
-        <v>1787302</v>
+        <v>1786920</v>
       </c>
       <c r="SS39" t="n">
-        <v>1904166</v>
+        <v>1904328</v>
       </c>
       <c r="ST39" t="n">
-        <v>2497831</v>
+        <v>2498355</v>
       </c>
       <c r="SU39" t="n">
         <v>2016111</v>
       </c>
       <c r="SV39" t="n">
-        <v>1643244</v>
+        <v>1644582</v>
       </c>
       <c r="SW39" t="n">
-        <v>2353151</v>
+        <v>2351398</v>
       </c>
       <c r="SX39" t="n">
-        <v>4035968</v>
+        <v>4035960</v>
+      </c>
+      <c r="SY39" t="n">
+        <v>2481724</v>
+      </c>
+      <c r="SZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -63767,7 +65195,7 @@
         <v>3273910</v>
       </c>
       <c r="SP40" t="n">
-        <v>3948011</v>
+        <v>3946544</v>
       </c>
       <c r="SQ40" t="n">
         <v>2867964</v>
@@ -63792,6 +65220,42 @@
       </c>
       <c r="SX40" t="n">
         <v>2986283</v>
+      </c>
+      <c r="SY40" t="n">
+        <v>3118881</v>
+      </c>
+      <c r="SZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -65318,40 +66782,76 @@
         <v>1678469</v>
       </c>
       <c r="SM41" t="n">
-        <v>2479779</v>
+        <v>2486282</v>
       </c>
       <c r="SN41" t="n">
-        <v>2145637</v>
+        <v>2148701</v>
       </c>
       <c r="SO41" t="n">
-        <v>2579306</v>
+        <v>2581642</v>
       </c>
       <c r="SP41" t="n">
-        <v>3392295</v>
+        <v>3401381</v>
       </c>
       <c r="SQ41" t="n">
-        <v>1860523</v>
+        <v>1861927</v>
       </c>
       <c r="SR41" t="n">
-        <v>1950874</v>
+        <v>1955175</v>
       </c>
       <c r="SS41" t="n">
-        <v>2788570</v>
+        <v>2789091</v>
       </c>
       <c r="ST41" t="n">
-        <v>2653354</v>
+        <v>2656748</v>
       </c>
       <c r="SU41" t="n">
-        <v>2201752</v>
+        <v>2203001</v>
       </c>
       <c r="SV41" t="n">
-        <v>3280557</v>
+        <v>3282394</v>
       </c>
       <c r="SW41" t="n">
-        <v>2893058</v>
+        <v>2895041</v>
       </c>
       <c r="SX41" t="n">
-        <v>3053348</v>
+        <v>3056417</v>
+      </c>
+      <c r="SY41" t="n">
+        <v>3088474</v>
+      </c>
+      <c r="SZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -66913,6 +68413,42 @@
       <c r="SX42" t="n">
         <v>244220</v>
       </c>
+      <c r="SY42" t="n">
+        <v>234506</v>
+      </c>
+      <c r="SZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -68473,6 +70009,42 @@
       <c r="SX43" t="n">
         <v>15062</v>
       </c>
+      <c r="SY43" t="n">
+        <v>393</v>
+      </c>
+      <c r="SZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -69998,7 +71570,7 @@
         <v>16268747</v>
       </c>
       <c r="SM44" t="n">
-        <v>16013208</v>
+        <v>16009857</v>
       </c>
       <c r="SN44" t="n">
         <v>17912469</v>
@@ -70007,13 +71579,13 @@
         <v>23899617</v>
       </c>
       <c r="SP44" t="n">
-        <v>20266173</v>
+        <v>20261508</v>
       </c>
       <c r="SQ44" t="n">
-        <v>14106800</v>
+        <v>14105263</v>
       </c>
       <c r="SR44" t="n">
-        <v>15410753</v>
+        <v>15408156</v>
       </c>
       <c r="SS44" t="n">
         <v>26018105</v>
@@ -70025,13 +71597,49 @@
         <v>21783799</v>
       </c>
       <c r="SV44" t="n">
-        <v>28903866</v>
+        <v>28898984</v>
       </c>
       <c r="SW44" t="n">
-        <v>21782993</v>
+        <v>21781297</v>
       </c>
       <c r="SX44" t="n">
         <v>30956077</v>
+      </c>
+      <c r="SY44" t="n">
+        <v>30039821</v>
+      </c>
+      <c r="SZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -71558,25 +73166,25 @@
         <v>11840465</v>
       </c>
       <c r="SM45" t="n">
-        <v>10711710</v>
+        <v>10737022</v>
       </c>
       <c r="SN45" t="n">
-        <v>12535652</v>
+        <v>12552657</v>
       </c>
       <c r="SO45" t="n">
-        <v>18079596</v>
+        <v>18079234</v>
       </c>
       <c r="SP45" t="n">
         <v>13988648</v>
       </c>
       <c r="SQ45" t="n">
-        <v>9954944</v>
+        <v>9959762</v>
       </c>
       <c r="SR45" t="n">
         <v>9801811</v>
       </c>
       <c r="SS45" t="n">
-        <v>11623913</v>
+        <v>11628192</v>
       </c>
       <c r="ST45" t="n">
         <v>15974499</v>
@@ -71591,7 +73199,43 @@
         <v>13028155</v>
       </c>
       <c r="SX45" t="n">
-        <v>12343720</v>
+        <v>12343863</v>
+      </c>
+      <c r="SY45" t="n">
+        <v>14378368</v>
+      </c>
+      <c r="SZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -73153,6 +74797,42 @@
       <c r="SX46" t="n">
         <v>70607</v>
       </c>
+      <c r="SY46" t="n">
+        <v>96332</v>
+      </c>
+      <c r="SZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -74713,6 +76393,42 @@
       <c r="SX47" t="n">
         <v>40867</v>
       </c>
+      <c r="SY47" t="n">
+        <v>17499</v>
+      </c>
+      <c r="SZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -76247,7 +77963,7 @@
         <v>2581592</v>
       </c>
       <c r="SP48" t="n">
-        <v>2507096</v>
+        <v>2497843</v>
       </c>
       <c r="SQ48" t="n">
         <v>2850741</v>
@@ -76272,6 +77988,42 @@
       </c>
       <c r="SX48" t="n">
         <v>4815173</v>
+      </c>
+      <c r="SY48" t="n">
+        <v>3924194</v>
+      </c>
+      <c r="SZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -77819,7 +79571,7 @@
         <v>154898</v>
       </c>
       <c r="ST49" t="n">
-        <v>213811</v>
+        <v>231733</v>
       </c>
       <c r="SU49" t="n">
         <v>287184</v>
@@ -77832,6 +79584,42 @@
       </c>
       <c r="SX49" t="n">
         <v>114269</v>
+      </c>
+      <c r="SY49" t="n">
+        <v>300496</v>
+      </c>
+      <c r="SZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -79393,6 +81181,42 @@
       <c r="SX50" t="n">
         <v>151429</v>
       </c>
+      <c r="SY50" t="n">
+        <v>35621</v>
+      </c>
+      <c r="SZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -80953,6 +82777,42 @@
       <c r="SX51" t="n">
         <v>425</v>
       </c>
+      <c r="SY51" t="n">
+        <v>2993</v>
+      </c>
+      <c r="SZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -82513,6 +84373,42 @@
       <c r="SX52" t="n">
         <v>313330</v>
       </c>
+      <c r="SY52" t="n">
+        <v>212112</v>
+      </c>
+      <c r="SZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -84073,6 +85969,42 @@
       <c r="SX53" t="n">
         <v>67149</v>
       </c>
+      <c r="SY53" t="n">
+        <v>75270</v>
+      </c>
+      <c r="SZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -85633,6 +87565,42 @@
       <c r="SX54" t="n">
         <v>303276</v>
       </c>
+      <c r="SY54" t="n">
+        <v>7860</v>
+      </c>
+      <c r="SZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -87193,6 +89161,42 @@
       <c r="SX55" t="n">
         <v>2749</v>
       </c>
+      <c r="SY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ55" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/158/MOF/TRADE/COUN/Asia.xlsx
+++ b/data/158/MOF/TRADE/COUN/Asia.xlsx
@@ -4577,7 +4577,7 @@
         <v>3577360498</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0</v>
+        <v>4185751502</v>
       </c>
       <c r="TA2" t="n">
         <v>0</v>
@@ -6170,10 +6170,10 @@
         <v>3928059940</v>
       </c>
       <c r="SY3" t="n">
-        <v>4183829399</v>
+        <v>4188178036</v>
       </c>
       <c r="SZ3" t="n">
-        <v>0</v>
+        <v>3440758229</v>
       </c>
       <c r="TA3" t="n">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>507268342</v>
       </c>
       <c r="SZ4" t="n">
-        <v>0</v>
+        <v>557246162</v>
       </c>
       <c r="TA4" t="n">
         <v>0</v>
@@ -9362,10 +9362,10 @@
         <v>343782986</v>
       </c>
       <c r="SY5" t="n">
-        <v>324622928</v>
+        <v>325704048</v>
       </c>
       <c r="SZ5" t="n">
-        <v>0</v>
+        <v>300421139</v>
       </c>
       <c r="TA5" t="n">
         <v>0</v>
@@ -14153,7 +14153,7 @@
         <v>1166593250</v>
       </c>
       <c r="SZ8" t="n">
-        <v>0</v>
+        <v>1477531525</v>
       </c>
       <c r="TA8" t="n">
         <v>0</v>
@@ -15746,10 +15746,10 @@
         <v>1897577797</v>
       </c>
       <c r="SY9" t="n">
-        <v>2128239237</v>
+        <v>2129237984</v>
       </c>
       <c r="SZ9" t="n">
-        <v>0</v>
+        <v>1533381245</v>
       </c>
       <c r="TA9" t="n">
         <v>0</v>
@@ -17345,7 +17345,7 @@
         <v>441964199</v>
       </c>
       <c r="SZ10" t="n">
-        <v>0</v>
+        <v>523015180</v>
       </c>
       <c r="TA10" t="n">
         <v>0</v>
@@ -18938,10 +18938,10 @@
         <v>369343016</v>
       </c>
       <c r="SY11" t="n">
-        <v>361407753</v>
+        <v>361540343</v>
       </c>
       <c r="SZ11" t="n">
-        <v>0</v>
+        <v>306702460</v>
       </c>
       <c r="TA11" t="n">
         <v>0</v>
@@ -20537,7 +20537,7 @@
         <v>4581569</v>
       </c>
       <c r="SZ12" t="n">
-        <v>0</v>
+        <v>5560923</v>
       </c>
       <c r="TA12" t="n">
         <v>0</v>
@@ -22133,7 +22133,7 @@
         <v>236926</v>
       </c>
       <c r="SZ13" t="n">
-        <v>0</v>
+        <v>278024</v>
       </c>
       <c r="TA13" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         <v>307842754</v>
       </c>
       <c r="SZ14" t="n">
-        <v>0</v>
+        <v>337115388</v>
       </c>
       <c r="TA14" t="n">
         <v>0</v>
@@ -25322,10 +25322,10 @@
         <v>11862489</v>
       </c>
       <c r="SY15" t="n">
-        <v>18704674</v>
+        <v>18696884</v>
       </c>
       <c r="SZ15" t="n">
-        <v>0</v>
+        <v>9576358</v>
       </c>
       <c r="TA15" t="n">
         <v>0</v>
@@ -26921,7 +26921,7 @@
         <v>139833973</v>
       </c>
       <c r="SZ16" t="n">
-        <v>0</v>
+        <v>178141853</v>
       </c>
       <c r="TA16" t="n">
         <v>0</v>
@@ -28514,10 +28514,10 @@
         <v>244073810</v>
       </c>
       <c r="SY17" t="n">
-        <v>261876101</v>
+        <v>262844747</v>
       </c>
       <c r="SZ17" t="n">
-        <v>0</v>
+        <v>217086426</v>
       </c>
       <c r="TA17" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>287566590</v>
       </c>
       <c r="SZ18" t="n">
-        <v>0</v>
+        <v>325739879</v>
       </c>
       <c r="TA18" t="n">
         <v>0</v>
@@ -31706,10 +31706,10 @@
         <v>258793553</v>
       </c>
       <c r="SY19" t="n">
-        <v>259720746</v>
+        <v>259621672</v>
       </c>
       <c r="SZ19" t="n">
-        <v>0</v>
+        <v>265186128</v>
       </c>
       <c r="TA19" t="n">
         <v>0</v>
@@ -33305,7 +33305,7 @@
         <v>187150671</v>
       </c>
       <c r="SZ20" t="n">
-        <v>0</v>
+        <v>183564370</v>
       </c>
       <c r="TA20" t="n">
         <v>0</v>
@@ -34898,10 +34898,10 @@
         <v>91835207</v>
       </c>
       <c r="SY21" t="n">
-        <v>93727736</v>
+        <v>93725228</v>
       </c>
       <c r="SZ21" t="n">
-        <v>0</v>
+        <v>86953331</v>
       </c>
       <c r="TA21" t="n">
         <v>0</v>
@@ -36497,7 +36497,7 @@
         <v>137296591</v>
       </c>
       <c r="SZ22" t="n">
-        <v>0</v>
+        <v>153244705</v>
       </c>
       <c r="TA22" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>235254049</v>
       </c>
       <c r="SY23" t="n">
-        <v>240053195</v>
+        <v>240179479</v>
       </c>
       <c r="SZ23" t="n">
-        <v>0</v>
+        <v>223643513</v>
       </c>
       <c r="TA23" t="n">
         <v>0</v>
@@ -39689,7 +39689,7 @@
         <v>317002</v>
       </c>
       <c r="SZ24" t="n">
-        <v>0</v>
+        <v>376010</v>
       </c>
       <c r="TA24" t="n">
         <v>0</v>
@@ -41282,10 +41282,10 @@
         <v>27823392</v>
       </c>
       <c r="SY25" t="n">
-        <v>34605763</v>
+        <v>34686925</v>
       </c>
       <c r="SZ25" t="n">
-        <v>0</v>
+        <v>30388026</v>
       </c>
       <c r="TA25" t="n">
         <v>0</v>
@@ -42881,7 +42881,7 @@
         <v>103676943</v>
       </c>
       <c r="SZ26" t="n">
-        <v>0</v>
+        <v>114538599</v>
       </c>
       <c r="TA26" t="n">
         <v>0</v>
@@ -44474,10 +44474,10 @@
         <v>105130842</v>
       </c>
       <c r="SY27" t="n">
-        <v>104051951</v>
+        <v>104440052</v>
       </c>
       <c r="SZ27" t="n">
-        <v>0</v>
+        <v>103063796</v>
       </c>
       <c r="TA27" t="n">
         <v>0</v>
@@ -46073,7 +46073,7 @@
         <v>130406800</v>
       </c>
       <c r="SZ28" t="n">
-        <v>0</v>
+        <v>140129020</v>
       </c>
       <c r="TA28" t="n">
         <v>0</v>
@@ -47666,10 +47666,10 @@
         <v>231440754</v>
       </c>
       <c r="SY29" t="n">
-        <v>235056797</v>
+        <v>235468601</v>
       </c>
       <c r="SZ29" t="n">
-        <v>0</v>
+        <v>237683139</v>
       </c>
       <c r="TA29" t="n">
         <v>0</v>
@@ -49265,7 +49265,7 @@
         <v>4506936</v>
       </c>
       <c r="SZ30" t="n">
-        <v>0</v>
+        <v>5525037</v>
       </c>
       <c r="TA30" t="n">
         <v>0</v>
@@ -50858,10 +50858,10 @@
         <v>14773209</v>
       </c>
       <c r="SY31" t="n">
-        <v>16346902</v>
+        <v>16573434</v>
       </c>
       <c r="SZ31" t="n">
-        <v>0</v>
+        <v>16875439</v>
       </c>
       <c r="TA31" t="n">
         <v>0</v>
@@ -52457,7 +52457,7 @@
         <v>947711</v>
       </c>
       <c r="SZ32" t="n">
-        <v>0</v>
+        <v>851160</v>
       </c>
       <c r="TA32" t="n">
         <v>0</v>
@@ -54053,7 +54053,7 @@
         <v>1366337</v>
       </c>
       <c r="SZ33" t="n">
-        <v>0</v>
+        <v>1870886</v>
       </c>
       <c r="TA33" t="n">
         <v>0</v>
@@ -55649,7 +55649,7 @@
         <v>2468711</v>
       </c>
       <c r="SZ34" t="n">
-        <v>0</v>
+        <v>3689563</v>
       </c>
       <c r="TA34" t="n">
         <v>0</v>
@@ -57242,10 +57242,10 @@
         <v>7174634</v>
       </c>
       <c r="SY35" t="n">
-        <v>9282555</v>
+        <v>9324067</v>
       </c>
       <c r="SZ35" t="n">
-        <v>0</v>
+        <v>11891729</v>
       </c>
       <c r="TA35" t="n">
         <v>0</v>
@@ -58841,7 +58841,7 @@
         <v>99581981</v>
       </c>
       <c r="SZ36" t="n">
-        <v>0</v>
+        <v>120377744</v>
       </c>
       <c r="TA36" t="n">
         <v>0</v>
@@ -60434,10 +60434,10 @@
         <v>67976951</v>
       </c>
       <c r="SY37" t="n">
-        <v>74184581</v>
+        <v>74179732</v>
       </c>
       <c r="SZ37" t="n">
-        <v>0</v>
+        <v>70645879</v>
       </c>
       <c r="TA37" t="n">
         <v>0</v>
@@ -62033,7 +62033,7 @@
         <v>17687148</v>
       </c>
       <c r="SZ38" t="n">
-        <v>0</v>
+        <v>20845658</v>
       </c>
       <c r="TA38" t="n">
         <v>0</v>
@@ -63626,10 +63626,10 @@
         <v>4035960</v>
       </c>
       <c r="SY39" t="n">
-        <v>2481724</v>
+        <v>2482778</v>
       </c>
       <c r="SZ39" t="n">
-        <v>0</v>
+        <v>2226188</v>
       </c>
       <c r="TA39" t="n">
         <v>0</v>
@@ -65225,7 +65225,7 @@
         <v>3118881</v>
       </c>
       <c r="SZ40" t="n">
-        <v>0</v>
+        <v>2860242</v>
       </c>
       <c r="TA40" t="n">
         <v>0</v>
@@ -66818,10 +66818,10 @@
         <v>3056417</v>
       </c>
       <c r="SY41" t="n">
-        <v>3088474</v>
+        <v>3089288</v>
       </c>
       <c r="SZ41" t="n">
-        <v>0</v>
+        <v>2367686</v>
       </c>
       <c r="TA41" t="n">
         <v>0</v>
@@ -68417,7 +68417,7 @@
         <v>234506</v>
       </c>
       <c r="SZ42" t="n">
-        <v>0</v>
+        <v>300184</v>
       </c>
       <c r="TA42" t="n">
         <v>0</v>
@@ -70013,7 +70013,7 @@
         <v>393</v>
       </c>
       <c r="SZ43" t="n">
-        <v>0</v>
+        <v>16667</v>
       </c>
       <c r="TA43" t="n">
         <v>0</v>
@@ -71609,7 +71609,7 @@
         <v>30039821</v>
       </c>
       <c r="SZ44" t="n">
-        <v>0</v>
+        <v>30572737</v>
       </c>
       <c r="TA44" t="n">
         <v>0</v>
@@ -73202,10 +73202,10 @@
         <v>12343863</v>
       </c>
       <c r="SY45" t="n">
-        <v>14378368</v>
+        <v>14382860</v>
       </c>
       <c r="SZ45" t="n">
-        <v>0</v>
+        <v>17077354</v>
       </c>
       <c r="TA45" t="n">
         <v>0</v>
@@ -74801,7 +74801,7 @@
         <v>96332</v>
       </c>
       <c r="SZ46" t="n">
-        <v>0</v>
+        <v>40796</v>
       </c>
       <c r="TA46" t="n">
         <v>0</v>
@@ -76397,7 +76397,7 @@
         <v>17499</v>
       </c>
       <c r="SZ47" t="n">
-        <v>0</v>
+        <v>3070899</v>
       </c>
       <c r="TA47" t="n">
         <v>0</v>
@@ -77993,7 +77993,7 @@
         <v>3924194</v>
       </c>
       <c r="SZ48" t="n">
-        <v>0</v>
+        <v>4139391</v>
       </c>
       <c r="TA48" t="n">
         <v>0</v>
@@ -79589,7 +79589,7 @@
         <v>300496</v>
       </c>
       <c r="SZ49" t="n">
-        <v>0</v>
+        <v>259615</v>
       </c>
       <c r="TA49" t="n">
         <v>0</v>
@@ -81185,7 +81185,7 @@
         <v>35621</v>
       </c>
       <c r="SZ50" t="n">
-        <v>0</v>
+        <v>36946</v>
       </c>
       <c r="TA50" t="n">
         <v>0</v>
@@ -82781,7 +82781,7 @@
         <v>2993</v>
       </c>
       <c r="SZ51" t="n">
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="TA51" t="n">
         <v>0</v>
@@ -84377,7 +84377,7 @@
         <v>212112</v>
       </c>
       <c r="SZ52" t="n">
-        <v>0</v>
+        <v>292566</v>
       </c>
       <c r="TA52" t="n">
         <v>0</v>
@@ -85973,7 +85973,7 @@
         <v>75270</v>
       </c>
       <c r="SZ53" t="n">
-        <v>0</v>
+        <v>77942</v>
       </c>
       <c r="TA53" t="n">
         <v>0</v>
@@ -87569,7 +87569,7 @@
         <v>7860</v>
       </c>
       <c r="SZ54" t="n">
-        <v>0</v>
+        <v>15864</v>
       </c>
       <c r="TA54" t="n">
         <v>0</v>
@@ -89165,7 +89165,7 @@
         <v>0</v>
       </c>
       <c r="SZ55" t="n">
-        <v>0</v>
+        <v>13377</v>
       </c>
       <c r="TA55" t="n">
         <v>0</v>
